--- a/SecretSantaNode/list.xlsx
+++ b/SecretSantaNode/list.xlsx
@@ -11,15 +11,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="13">
   <si>
     <t>mahikanthnag.yalamarthi@accoliteindia.com</t>
   </si>
   <si>
+    <t>Mahikanth Nag</t>
+  </si>
+  <si>
+    <t>Night</t>
+  </si>
+  <si>
+    <t>Idera</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>Accolite</t>
+  </si>
+  <si>
     <t>babanag95@gmail.com</t>
   </si>
   <si>
+    <t>babanag</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
     <t>secretsanta.accolite@gmail.com</t>
+  </si>
+  <si>
+    <t>secretsanta</t>
+  </si>
+  <si>
+    <t>FedEx</t>
+  </si>
+  <si>
+    <t>Cambium</t>
   </si>
 </sst>
 </file>
@@ -96,116 +126,401 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
         <v>3.0</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
         <v>4.0</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
         <v>5.0</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
         <v>6.0</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
         <v>7.0</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
         <v>8.0</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
         <v>9.0</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1">
         <v>10.0</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1">
         <v>11.0</v>
       </c>
-      <c r="B12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1">
         <v>12.0</v>
       </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1">
         <v>13.0</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1">
         <v>14.0</v>
       </c>
-      <c r="B15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1">
         <v>15.0</v>
       </c>
-      <c r="B16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1">
         <v>16.0</v>
       </c>
-      <c r="B17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1">
         <v>17.0</v>
       </c>
-      <c r="B18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1">
         <v>18.0</v>
       </c>
-      <c r="B19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1">
         <v>19.0</v>
       </c>
-      <c r="B20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1"/>

--- a/SecretSantaNode/list.xlsx
+++ b/SecretSantaNode/list.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="13">
   <si>
     <t>mahikanthnag.yalamarthi@accoliteindia.com</t>
   </si>
@@ -46,21 +46,24 @@
     <t>secretsanta</t>
   </si>
   <si>
+    <t>Cambium</t>
+  </si>
+  <si>
     <t>FedEx</t>
-  </si>
-  <si>
-    <t>Cambium</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <name val="Cambria"/>
     </font>
     <font/>
     <font>
@@ -81,23 +84,32 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -109,7 +121,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -129,6 +141,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2"/>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
@@ -149,6 +162,7 @@
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
@@ -169,6 +183,7 @@
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
@@ -183,17 +198,18 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C4" s="2"/>
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>4</v>
@@ -203,17 +219,18 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
         <v>4.0</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C5" s="2"/>
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>4</v>
@@ -223,12 +240,13 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1">
+      <c r="A6" s="3">
         <v>5.0</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C6" s="2"/>
       <c r="D6" s="1" t="s">
         <v>2</v>
       </c>
@@ -243,17 +261,18 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1">
+      <c r="A7" s="3">
         <v>6.0</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C7" s="2"/>
       <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>4</v>
@@ -263,17 +282,18 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1">
+      <c r="A8" s="3">
         <v>7.0</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C8" s="2"/>
       <c r="D8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>4</v>
@@ -283,17 +303,18 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1">
+      <c r="A9" s="3">
         <v>8.0</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C9" s="2"/>
       <c r="D9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>4</v>
@@ -303,17 +324,18 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1">
+      <c r="A10" s="3">
         <v>9.0</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C10" s="2"/>
       <c r="D10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>4</v>
@@ -323,17 +345,18 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1">
+      <c r="A11" s="3">
         <v>10.0</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C11" s="2"/>
       <c r="D11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>4</v>
@@ -343,14 +366,15 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1">
+      <c r="A12" s="3">
         <v>11.0</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C12" s="2"/>
       <c r="D12" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>11</v>
@@ -363,17 +387,18 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1">
+      <c r="A13" s="3">
         <v>12.0</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C13" s="2"/>
       <c r="D13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>4</v>
@@ -383,14 +408,15 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1">
+      <c r="A14" s="3">
         <v>13.0</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C14" s="2"/>
       <c r="D14" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>12</v>
@@ -403,14 +429,15 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1">
+      <c r="A15" s="3">
         <v>14.0</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C15" s="2"/>
       <c r="D15" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>12</v>
@@ -423,14 +450,15 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1">
+      <c r="A16" s="3">
         <v>15.0</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C16" s="2"/>
       <c r="D16" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>11</v>
@@ -443,17 +471,18 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1">
+      <c r="A17" s="3">
         <v>16.0</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C17" s="2"/>
       <c r="D17" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>4</v>
@@ -463,14 +492,15 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1">
+      <c r="A18" s="3">
         <v>17.0</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C18" s="2"/>
       <c r="D18" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>12</v>
@@ -483,500 +513,476 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1">
-        <v>18.0</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20">
-      <c r="A20" s="1">
-        <v>19.0</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
     </row>
     <row r="22">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
     </row>
     <row r="23">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
     </row>
     <row r="24">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
     </row>
     <row r="25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
     </row>
     <row r="26">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
     </row>
     <row r="27">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
     </row>
     <row r="28">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
     </row>
     <row r="29">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
     </row>
     <row r="30">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
     </row>
     <row r="31">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
     </row>
     <row r="32">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
     </row>
     <row r="33">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
     </row>
     <row r="34">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
     </row>
     <row r="35">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
     </row>
     <row r="36">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
     </row>
     <row r="37">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
     </row>
     <row r="38">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
     </row>
     <row r="39">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
     </row>
     <row r="40">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
     </row>
     <row r="41">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
     </row>
     <row r="42">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
     </row>
     <row r="43">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
     </row>
     <row r="44">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
     </row>
     <row r="45">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
     </row>
     <row r="46">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
     </row>
     <row r="47">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
     </row>
     <row r="48">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
     </row>
     <row r="49">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
     </row>
     <row r="50">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
     </row>
     <row r="51">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
     </row>
     <row r="52">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
     </row>
     <row r="53">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
     </row>
     <row r="54">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
     </row>
     <row r="55">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
     </row>
     <row r="56">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
     </row>
     <row r="57">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
     </row>
     <row r="58">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
     </row>
     <row r="59">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
     </row>
     <row r="60">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
     </row>
     <row r="61">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
     </row>
     <row r="62">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
     </row>
     <row r="63">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
     </row>
     <row r="64">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
     </row>
     <row r="65">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
     </row>
     <row r="66">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
     </row>
     <row r="126">
-      <c r="B126" s="2"/>
-      <c r="C126" s="3"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="6"/>
     </row>
     <row r="127">
-      <c r="B127" s="4"/>
-      <c r="C127" s="4"/>
+      <c r="B127" s="7"/>
+      <c r="C127" s="7"/>
     </row>
     <row r="128">
-      <c r="B128" s="4"/>
-      <c r="C128" s="4"/>
+      <c r="B128" s="7"/>
+      <c r="C128" s="7"/>
     </row>
     <row r="129">
-      <c r="B129" s="4"/>
-      <c r="C129" s="4"/>
+      <c r="B129" s="7"/>
+      <c r="C129" s="7"/>
     </row>
     <row r="130">
-      <c r="B130" s="4"/>
-      <c r="C130" s="4"/>
+      <c r="B130" s="7"/>
+      <c r="C130" s="7"/>
     </row>
     <row r="131">
-      <c r="B131" s="4"/>
-      <c r="C131" s="4"/>
+      <c r="B131" s="7"/>
+      <c r="C131" s="7"/>
     </row>
     <row r="132">
-      <c r="B132" s="4"/>
-      <c r="C132" s="4"/>
+      <c r="B132" s="7"/>
+      <c r="C132" s="7"/>
     </row>
     <row r="133">
-      <c r="B133" s="4"/>
-      <c r="C133" s="4"/>
+      <c r="B133" s="7"/>
+      <c r="C133" s="7"/>
     </row>
     <row r="134">
-      <c r="B134" s="4"/>
-      <c r="C134" s="4"/>
+      <c r="B134" s="7"/>
+      <c r="C134" s="7"/>
     </row>
     <row r="135">
-      <c r="B135" s="4"/>
-      <c r="C135" s="5"/>
+      <c r="B135" s="7"/>
+      <c r="C135" s="8"/>
     </row>
     <row r="136">
-      <c r="B136" s="4"/>
-      <c r="C136" s="4"/>
+      <c r="B136" s="7"/>
+      <c r="C136" s="7"/>
     </row>
     <row r="137">
-      <c r="B137" s="4"/>
-      <c r="C137" s="4"/>
+      <c r="B137" s="7"/>
+      <c r="C137" s="7"/>
     </row>
     <row r="138">
-      <c r="B138" s="4"/>
-      <c r="C138" s="4"/>
+      <c r="B138" s="7"/>
+      <c r="C138" s="7"/>
     </row>
     <row r="139">
-      <c r="B139" s="4"/>
-      <c r="C139" s="4"/>
+      <c r="B139" s="7"/>
+      <c r="C139" s="7"/>
     </row>
     <row r="140">
-      <c r="B140" s="4"/>
-      <c r="C140" s="4"/>
+      <c r="B140" s="7"/>
+      <c r="C140" s="7"/>
     </row>
     <row r="141">
-      <c r="B141" s="4"/>
-      <c r="C141" s="5"/>
+      <c r="B141" s="7"/>
+      <c r="C141" s="8"/>
     </row>
     <row r="142">
-      <c r="B142" s="4"/>
-      <c r="C142" s="4"/>
+      <c r="B142" s="7"/>
+      <c r="C142" s="7"/>
     </row>
     <row r="143">
-      <c r="B143" s="4"/>
-      <c r="C143" s="4"/>
+      <c r="B143" s="7"/>
+      <c r="C143" s="7"/>
     </row>
     <row r="144">
-      <c r="B144" s="4"/>
-      <c r="C144" s="4"/>
+      <c r="B144" s="7"/>
+      <c r="C144" s="7"/>
     </row>
     <row r="145">
-      <c r="B145" s="4"/>
-      <c r="C145" s="4"/>
+      <c r="B145" s="7"/>
+      <c r="C145" s="7"/>
     </row>
     <row r="146">
-      <c r="B146" s="4"/>
-      <c r="C146" s="4"/>
+      <c r="B146" s="7"/>
+      <c r="C146" s="7"/>
     </row>
     <row r="147">
-      <c r="B147" s="4"/>
-      <c r="C147" s="4"/>
+      <c r="B147" s="7"/>
+      <c r="C147" s="7"/>
     </row>
     <row r="148">
-      <c r="B148" s="4"/>
-      <c r="C148" s="4"/>
+      <c r="B148" s="7"/>
+      <c r="C148" s="7"/>
     </row>
     <row r="149">
-      <c r="B149" s="4"/>
-      <c r="C149" s="4"/>
+      <c r="B149" s="7"/>
+      <c r="C149" s="7"/>
     </row>
     <row r="150">
-      <c r="B150" s="4"/>
-      <c r="C150" s="4"/>
+      <c r="B150" s="7"/>
+      <c r="C150" s="7"/>
     </row>
     <row r="151">
-      <c r="B151" s="4"/>
-      <c r="C151" s="4"/>
+      <c r="B151" s="7"/>
+      <c r="C151" s="7"/>
     </row>
     <row r="152">
-      <c r="B152" s="4"/>
-      <c r="C152" s="4"/>
+      <c r="B152" s="7"/>
+      <c r="C152" s="7"/>
     </row>
     <row r="153">
-      <c r="B153" s="4"/>
-      <c r="C153" s="4"/>
+      <c r="B153" s="7"/>
+      <c r="C153" s="7"/>
     </row>
     <row r="154">
-      <c r="B154" s="4"/>
-      <c r="C154" s="4"/>
+      <c r="B154" s="7"/>
+      <c r="C154" s="7"/>
     </row>
     <row r="155">
-      <c r="B155" s="4"/>
-      <c r="C155" s="4"/>
+      <c r="B155" s="7"/>
+      <c r="C155" s="7"/>
     </row>
     <row r="156">
-      <c r="B156" s="4"/>
-      <c r="C156" s="4"/>
+      <c r="B156" s="7"/>
+      <c r="C156" s="7"/>
     </row>
     <row r="157">
-      <c r="B157" s="4"/>
-      <c r="C157" s="4"/>
+      <c r="B157" s="7"/>
+      <c r="C157" s="7"/>
     </row>
     <row r="158">
-      <c r="B158" s="4"/>
-      <c r="C158" s="4"/>
+      <c r="B158" s="7"/>
+      <c r="C158" s="7"/>
     </row>
     <row r="159">
-      <c r="B159" s="4"/>
-      <c r="C159" s="4"/>
+      <c r="B159" s="7"/>
+      <c r="C159" s="7"/>
     </row>
     <row r="160">
-      <c r="B160" s="4"/>
-      <c r="C160" s="4"/>
+      <c r="B160" s="7"/>
+      <c r="C160" s="7"/>
     </row>
     <row r="161">
-      <c r="B161" s="4"/>
-      <c r="C161" s="4"/>
+      <c r="B161" s="7"/>
+      <c r="C161" s="7"/>
     </row>
     <row r="162">
-      <c r="B162" s="4"/>
-      <c r="C162" s="4"/>
+      <c r="B162" s="7"/>
+      <c r="C162" s="7"/>
     </row>
     <row r="163">
-      <c r="B163" s="4"/>
-      <c r="C163" s="4"/>
+      <c r="B163" s="7"/>
+      <c r="C163" s="7"/>
     </row>
     <row r="164">
-      <c r="B164" s="4"/>
-      <c r="C164" s="4"/>
+      <c r="B164" s="7"/>
+      <c r="C164" s="7"/>
     </row>
     <row r="165">
-      <c r="B165" s="4"/>
-      <c r="C165" s="4"/>
+      <c r="B165" s="7"/>
+      <c r="C165" s="7"/>
     </row>
     <row r="166">
-      <c r="B166" s="4"/>
-      <c r="C166" s="4"/>
+      <c r="B166" s="7"/>
+      <c r="C166" s="7"/>
     </row>
     <row r="167">
-      <c r="B167" s="4"/>
-      <c r="C167" s="4"/>
+      <c r="B167" s="7"/>
+      <c r="C167" s="7"/>
     </row>
     <row r="168">
-      <c r="B168" s="4"/>
-      <c r="C168" s="4"/>
+      <c r="B168" s="7"/>
+      <c r="C168" s="7"/>
     </row>
     <row r="169">
-      <c r="B169" s="4"/>
-      <c r="C169" s="4"/>
+      <c r="B169" s="7"/>
+      <c r="C169" s="7"/>
     </row>
     <row r="170">
-      <c r="B170" s="4"/>
-      <c r="C170" s="4"/>
+      <c r="B170" s="7"/>
+      <c r="C170" s="7"/>
     </row>
     <row r="171">
-      <c r="B171" s="4"/>
-      <c r="C171" s="4"/>
+      <c r="B171" s="7"/>
+      <c r="C171" s="7"/>
     </row>
     <row r="172">
-      <c r="B172" s="4"/>
-      <c r="C172" s="4"/>
+      <c r="B172" s="7"/>
+      <c r="C172" s="7"/>
     </row>
     <row r="173">
-      <c r="B173" s="4"/>
-      <c r="C173" s="4"/>
+      <c r="B173" s="7"/>
+      <c r="C173" s="7"/>
     </row>
     <row r="174">
-      <c r="B174" s="4"/>
-      <c r="C174" s="4"/>
+      <c r="B174" s="7"/>
+      <c r="C174" s="7"/>
     </row>
     <row r="175">
-      <c r="B175" s="2"/>
-      <c r="C175" s="2"/>
+      <c r="B175" s="5"/>
+      <c r="C175" s="5"/>
     </row>
     <row r="176">
-      <c r="B176" s="4"/>
-      <c r="C176" s="4"/>
+      <c r="B176" s="7"/>
+      <c r="C176" s="7"/>
     </row>
     <row r="177">
-      <c r="B177" s="4"/>
-      <c r="C177" s="4"/>
+      <c r="B177" s="7"/>
+      <c r="C177" s="7"/>
     </row>
     <row r="178">
-      <c r="B178" s="4"/>
-      <c r="C178" s="4"/>
+      <c r="B178" s="7"/>
+      <c r="C178" s="7"/>
     </row>
     <row r="179">
-      <c r="B179" s="4"/>
-      <c r="C179" s="4"/>
+      <c r="B179" s="7"/>
+      <c r="C179" s="7"/>
     </row>
     <row r="180">
-      <c r="B180" s="4"/>
-      <c r="C180" s="4"/>
+      <c r="B180" s="7"/>
+      <c r="C180" s="7"/>
     </row>
     <row r="181">
-      <c r="B181" s="4"/>
-      <c r="C181" s="4"/>
+      <c r="B181" s="7"/>
+      <c r="C181" s="7"/>
     </row>
     <row r="182">
-      <c r="B182" s="4"/>
-      <c r="C182" s="4"/>
+      <c r="B182" s="7"/>
+      <c r="C182" s="7"/>
     </row>
     <row r="183">
-      <c r="B183" s="4"/>
-      <c r="C183" s="4"/>
+      <c r="B183" s="7"/>
+      <c r="C183" s="7"/>
     </row>
     <row r="184">
-      <c r="B184" s="4"/>
-      <c r="C184" s="4"/>
+      <c r="B184" s="7"/>
+      <c r="C184" s="7"/>
     </row>
     <row r="185">
-      <c r="B185" s="4"/>
-      <c r="C185" s="4"/>
+      <c r="B185" s="7"/>
+      <c r="C185" s="7"/>
     </row>
     <row r="186">
-      <c r="B186" s="4"/>
-      <c r="C186" s="4"/>
+      <c r="B186" s="7"/>
+      <c r="C186" s="7"/>
     </row>
     <row r="187">
-      <c r="B187" s="4"/>
-      <c r="C187" s="4"/>
+      <c r="B187" s="7"/>
+      <c r="C187" s="7"/>
     </row>
     <row r="188">
-      <c r="B188" s="4"/>
-      <c r="C188" s="4"/>
+      <c r="B188" s="7"/>
+      <c r="C188" s="7"/>
     </row>
     <row r="189">
-      <c r="B189" s="4"/>
-      <c r="C189" s="4"/>
+      <c r="B189" s="7"/>
+      <c r="C189" s="7"/>
     </row>
     <row r="190">
-      <c r="B190" s="4"/>
-      <c r="C190" s="4"/>
+      <c r="B190" s="7"/>
+      <c r="C190" s="7"/>
     </row>
     <row r="191">
-      <c r="B191" s="4"/>
-      <c r="C191" s="4"/>
+      <c r="B191" s="7"/>
+      <c r="C191" s="7"/>
     </row>
     <row r="192">
-      <c r="B192" s="4"/>
-      <c r="C192" s="4"/>
+      <c r="B192" s="7"/>
+      <c r="C192" s="7"/>
     </row>
     <row r="193">
-      <c r="B193" s="4"/>
-      <c r="C193" s="4"/>
+      <c r="B193" s="7"/>
+      <c r="C193" s="7"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/SecretSantaNode/list.xlsx
+++ b/SecretSantaNode/list.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
   <si>
     <t>mahikanthnag.yalamarthi@accoliteindia.com</t>
   </si>
@@ -46,17 +46,44 @@
     <t>secretsanta</t>
   </si>
   <si>
+    <t>aravind@gmail.com</t>
+  </si>
+  <si>
+    <t>aravind</t>
+  </si>
+  <si>
+    <t>ankit@gmail.com</t>
+  </si>
+  <si>
+    <t>ankit</t>
+  </si>
+  <si>
     <t>Cambium</t>
   </si>
   <si>
-    <t>FedEx</t>
+    <t>soman@gmail.com</t>
+  </si>
+  <si>
+    <t>soman</t>
+  </si>
+  <si>
+    <t>pavani@gmail.com</t>
+  </si>
+  <si>
+    <t>pavani</t>
+  </si>
+  <si>
+    <t>deepika@gmail.com</t>
+  </si>
+  <si>
+    <t>deepika</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -66,6 +93,10 @@
       <name val="Cambria"/>
     </font>
     <font/>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+    </font>
     <font>
       <name val="Arial"/>
     </font>
@@ -84,7 +115,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -97,19 +128,22 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -198,11 +232,11 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3">
-        <v>3.0</v>
+      <c r="A4" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="1" t="s">
@@ -219,18 +253,18 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3">
-        <v>4.0</v>
+      <c r="A5" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>4</v>
@@ -240,11 +274,11 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3">
-        <v>5.0</v>
+      <c r="A6" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="1" t="s">
@@ -261,18 +295,18 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3">
-        <v>6.0</v>
+      <c r="A7" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>4</v>
@@ -282,11 +316,11 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3">
-        <v>7.0</v>
+      <c r="A8" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="1" t="s">
@@ -303,686 +337,566 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A9" s="3"/>
+      <c r="B9" s="1"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
     </row>
     <row r="10">
-      <c r="A10" s="3">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A10" s="3"/>
+      <c r="B10" s="1"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
     </row>
     <row r="11">
-      <c r="A11" s="3">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A11" s="3"/>
+      <c r="B11" s="1"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
     </row>
     <row r="12">
-      <c r="A12" s="3">
-        <v>11.0</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A12" s="3"/>
+      <c r="B12" s="1"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
     </row>
     <row r="13">
-      <c r="A13" s="3">
-        <v>12.0</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A13" s="3"/>
+      <c r="B13" s="1"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
     </row>
     <row r="14">
-      <c r="A14" s="3">
-        <v>13.0</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A14" s="3"/>
+      <c r="B14" s="1"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
     </row>
     <row r="15">
-      <c r="A15" s="3">
-        <v>14.0</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A15" s="3"/>
+      <c r="B15" s="1"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
     </row>
     <row r="16">
-      <c r="A16" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A16" s="3"/>
+      <c r="B16" s="1"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
     </row>
     <row r="17">
-      <c r="A17" s="3">
-        <v>16.0</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A17" s="3"/>
+      <c r="B17" s="1"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
     </row>
     <row r="18">
-      <c r="A18" s="3">
-        <v>17.0</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A18" s="3"/>
+      <c r="B18" s="1"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
     </row>
     <row r="19">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
     </row>
     <row r="20">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
     </row>
     <row r="21">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
     </row>
     <row r="22">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
     </row>
     <row r="23">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
     </row>
     <row r="24">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
     </row>
     <row r="25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
     </row>
     <row r="26">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
     </row>
     <row r="27">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
     </row>
     <row r="28">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
     </row>
     <row r="29">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
     </row>
     <row r="30">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
     </row>
     <row r="31">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
     </row>
     <row r="32">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
     </row>
     <row r="33">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
     </row>
     <row r="34">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
     </row>
     <row r="35">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
     </row>
     <row r="36">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
     </row>
     <row r="37">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
     </row>
     <row r="38">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
     </row>
     <row r="39">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
     </row>
     <row r="40">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
     </row>
     <row r="41">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
     </row>
     <row r="42">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
     </row>
     <row r="43">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
     </row>
     <row r="44">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
     </row>
     <row r="45">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
     </row>
     <row r="46">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
     </row>
     <row r="47">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
     </row>
     <row r="48">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
     </row>
     <row r="49">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
     </row>
     <row r="50">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
     </row>
     <row r="51">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
     </row>
     <row r="52">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
     </row>
     <row r="53">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
     </row>
     <row r="54">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
     </row>
     <row r="55">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
     </row>
     <row r="56">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
     </row>
     <row r="57">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
     </row>
     <row r="58">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
     </row>
     <row r="59">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
     </row>
     <row r="60">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
     </row>
     <row r="61">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
     </row>
     <row r="62">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
     </row>
     <row r="63">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
     </row>
     <row r="64">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
     </row>
     <row r="65">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
     </row>
     <row r="66">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
     </row>
     <row r="126">
-      <c r="B126" s="5"/>
-      <c r="C126" s="6"/>
+      <c r="B126" s="6"/>
+      <c r="C126" s="7"/>
     </row>
     <row r="127">
-      <c r="B127" s="7"/>
-      <c r="C127" s="7"/>
+      <c r="B127" s="8"/>
+      <c r="C127" s="8"/>
     </row>
     <row r="128">
-      <c r="B128" s="7"/>
-      <c r="C128" s="7"/>
+      <c r="B128" s="8"/>
+      <c r="C128" s="8"/>
     </row>
     <row r="129">
-      <c r="B129" s="7"/>
-      <c r="C129" s="7"/>
+      <c r="B129" s="8"/>
+      <c r="C129" s="8"/>
     </row>
     <row r="130">
-      <c r="B130" s="7"/>
-      <c r="C130" s="7"/>
+      <c r="B130" s="8"/>
+      <c r="C130" s="8"/>
     </row>
     <row r="131">
-      <c r="B131" s="7"/>
-      <c r="C131" s="7"/>
+      <c r="B131" s="8"/>
+      <c r="C131" s="8"/>
     </row>
     <row r="132">
-      <c r="B132" s="7"/>
-      <c r="C132" s="7"/>
+      <c r="B132" s="8"/>
+      <c r="C132" s="8"/>
     </row>
     <row r="133">
-      <c r="B133" s="7"/>
-      <c r="C133" s="7"/>
+      <c r="B133" s="8"/>
+      <c r="C133" s="8"/>
     </row>
     <row r="134">
-      <c r="B134" s="7"/>
-      <c r="C134" s="7"/>
+      <c r="B134" s="8"/>
+      <c r="C134" s="8"/>
     </row>
     <row r="135">
-      <c r="B135" s="7"/>
-      <c r="C135" s="8"/>
+      <c r="B135" s="8"/>
+      <c r="C135" s="9"/>
     </row>
     <row r="136">
-      <c r="B136" s="7"/>
-      <c r="C136" s="7"/>
+      <c r="B136" s="8"/>
+      <c r="C136" s="8"/>
     </row>
     <row r="137">
-      <c r="B137" s="7"/>
-      <c r="C137" s="7"/>
+      <c r="B137" s="8"/>
+      <c r="C137" s="8"/>
     </row>
     <row r="138">
-      <c r="B138" s="7"/>
-      <c r="C138" s="7"/>
+      <c r="B138" s="8"/>
+      <c r="C138" s="8"/>
     </row>
     <row r="139">
-      <c r="B139" s="7"/>
-      <c r="C139" s="7"/>
+      <c r="B139" s="8"/>
+      <c r="C139" s="8"/>
     </row>
     <row r="140">
-      <c r="B140" s="7"/>
-      <c r="C140" s="7"/>
+      <c r="B140" s="8"/>
+      <c r="C140" s="8"/>
     </row>
     <row r="141">
-      <c r="B141" s="7"/>
-      <c r="C141" s="8"/>
+      <c r="B141" s="8"/>
+      <c r="C141" s="9"/>
     </row>
     <row r="142">
-      <c r="B142" s="7"/>
-      <c r="C142" s="7"/>
+      <c r="B142" s="8"/>
+      <c r="C142" s="8"/>
     </row>
     <row r="143">
-      <c r="B143" s="7"/>
-      <c r="C143" s="7"/>
+      <c r="B143" s="8"/>
+      <c r="C143" s="8"/>
     </row>
     <row r="144">
-      <c r="B144" s="7"/>
-      <c r="C144" s="7"/>
+      <c r="B144" s="8"/>
+      <c r="C144" s="8"/>
     </row>
     <row r="145">
-      <c r="B145" s="7"/>
-      <c r="C145" s="7"/>
+      <c r="B145" s="8"/>
+      <c r="C145" s="8"/>
     </row>
     <row r="146">
-      <c r="B146" s="7"/>
-      <c r="C146" s="7"/>
+      <c r="B146" s="8"/>
+      <c r="C146" s="8"/>
     </row>
     <row r="147">
-      <c r="B147" s="7"/>
-      <c r="C147" s="7"/>
+      <c r="B147" s="8"/>
+      <c r="C147" s="8"/>
     </row>
     <row r="148">
-      <c r="B148" s="7"/>
-      <c r="C148" s="7"/>
+      <c r="B148" s="8"/>
+      <c r="C148" s="8"/>
     </row>
     <row r="149">
-      <c r="B149" s="7"/>
-      <c r="C149" s="7"/>
+      <c r="B149" s="8"/>
+      <c r="C149" s="8"/>
     </row>
     <row r="150">
-      <c r="B150" s="7"/>
-      <c r="C150" s="7"/>
+      <c r="B150" s="8"/>
+      <c r="C150" s="8"/>
     </row>
     <row r="151">
-      <c r="B151" s="7"/>
-      <c r="C151" s="7"/>
+      <c r="B151" s="8"/>
+      <c r="C151" s="8"/>
     </row>
     <row r="152">
-      <c r="B152" s="7"/>
-      <c r="C152" s="7"/>
+      <c r="B152" s="8"/>
+      <c r="C152" s="8"/>
     </row>
     <row r="153">
-      <c r="B153" s="7"/>
-      <c r="C153" s="7"/>
+      <c r="B153" s="8"/>
+      <c r="C153" s="8"/>
     </row>
     <row r="154">
-      <c r="B154" s="7"/>
-      <c r="C154" s="7"/>
+      <c r="B154" s="8"/>
+      <c r="C154" s="8"/>
     </row>
     <row r="155">
-      <c r="B155" s="7"/>
-      <c r="C155" s="7"/>
+      <c r="B155" s="8"/>
+      <c r="C155" s="8"/>
     </row>
     <row r="156">
-      <c r="B156" s="7"/>
-      <c r="C156" s="7"/>
+      <c r="B156" s="8"/>
+      <c r="C156" s="8"/>
     </row>
     <row r="157">
-      <c r="B157" s="7"/>
-      <c r="C157" s="7"/>
+      <c r="B157" s="8"/>
+      <c r="C157" s="8"/>
     </row>
     <row r="158">
-      <c r="B158" s="7"/>
-      <c r="C158" s="7"/>
+      <c r="B158" s="8"/>
+      <c r="C158" s="8"/>
     </row>
     <row r="159">
-      <c r="B159" s="7"/>
-      <c r="C159" s="7"/>
+      <c r="B159" s="8"/>
+      <c r="C159" s="8"/>
     </row>
     <row r="160">
-      <c r="B160" s="7"/>
-      <c r="C160" s="7"/>
+      <c r="B160" s="8"/>
+      <c r="C160" s="8"/>
     </row>
     <row r="161">
-      <c r="B161" s="7"/>
-      <c r="C161" s="7"/>
+      <c r="B161" s="8"/>
+      <c r="C161" s="8"/>
     </row>
     <row r="162">
-      <c r="B162" s="7"/>
-      <c r="C162" s="7"/>
+      <c r="B162" s="8"/>
+      <c r="C162" s="8"/>
     </row>
     <row r="163">
-      <c r="B163" s="7"/>
-      <c r="C163" s="7"/>
+      <c r="B163" s="8"/>
+      <c r="C163" s="8"/>
     </row>
     <row r="164">
-      <c r="B164" s="7"/>
-      <c r="C164" s="7"/>
+      <c r="B164" s="8"/>
+      <c r="C164" s="8"/>
     </row>
     <row r="165">
-      <c r="B165" s="7"/>
-      <c r="C165" s="7"/>
+      <c r="B165" s="8"/>
+      <c r="C165" s="8"/>
     </row>
     <row r="166">
-      <c r="B166" s="7"/>
-      <c r="C166" s="7"/>
+      <c r="B166" s="8"/>
+      <c r="C166" s="8"/>
     </row>
     <row r="167">
-      <c r="B167" s="7"/>
-      <c r="C167" s="7"/>
+      <c r="B167" s="8"/>
+      <c r="C167" s="8"/>
     </row>
     <row r="168">
-      <c r="B168" s="7"/>
-      <c r="C168" s="7"/>
+      <c r="B168" s="8"/>
+      <c r="C168" s="8"/>
     </row>
     <row r="169">
-      <c r="B169" s="7"/>
-      <c r="C169" s="7"/>
+      <c r="B169" s="8"/>
+      <c r="C169" s="8"/>
     </row>
     <row r="170">
-      <c r="B170" s="7"/>
-      <c r="C170" s="7"/>
+      <c r="B170" s="8"/>
+      <c r="C170" s="8"/>
     </row>
     <row r="171">
-      <c r="B171" s="7"/>
-      <c r="C171" s="7"/>
+      <c r="B171" s="8"/>
+      <c r="C171" s="8"/>
     </row>
     <row r="172">
-      <c r="B172" s="7"/>
-      <c r="C172" s="7"/>
+      <c r="B172" s="8"/>
+      <c r="C172" s="8"/>
     </row>
     <row r="173">
-      <c r="B173" s="7"/>
-      <c r="C173" s="7"/>
+      <c r="B173" s="8"/>
+      <c r="C173" s="8"/>
     </row>
     <row r="174">
-      <c r="B174" s="7"/>
-      <c r="C174" s="7"/>
+      <c r="B174" s="8"/>
+      <c r="C174" s="8"/>
     </row>
     <row r="175">
-      <c r="B175" s="5"/>
-      <c r="C175" s="5"/>
+      <c r="B175" s="6"/>
+      <c r="C175" s="6"/>
     </row>
     <row r="176">
-      <c r="B176" s="7"/>
-      <c r="C176" s="7"/>
+      <c r="B176" s="8"/>
+      <c r="C176" s="8"/>
     </row>
     <row r="177">
-      <c r="B177" s="7"/>
-      <c r="C177" s="7"/>
+      <c r="B177" s="8"/>
+      <c r="C177" s="8"/>
     </row>
     <row r="178">
-      <c r="B178" s="7"/>
-      <c r="C178" s="7"/>
+      <c r="B178" s="8"/>
+      <c r="C178" s="8"/>
     </row>
     <row r="179">
-      <c r="B179" s="7"/>
-      <c r="C179" s="7"/>
+      <c r="B179" s="8"/>
+      <c r="C179" s="8"/>
     </row>
     <row r="180">
-      <c r="B180" s="7"/>
-      <c r="C180" s="7"/>
+      <c r="B180" s="8"/>
+      <c r="C180" s="8"/>
     </row>
     <row r="181">
-      <c r="B181" s="7"/>
-      <c r="C181" s="7"/>
+      <c r="B181" s="8"/>
+      <c r="C181" s="8"/>
     </row>
     <row r="182">
-      <c r="B182" s="7"/>
-      <c r="C182" s="7"/>
+      <c r="B182" s="8"/>
+      <c r="C182" s="8"/>
     </row>
     <row r="183">
-      <c r="B183" s="7"/>
-      <c r="C183" s="7"/>
+      <c r="B183" s="8"/>
+      <c r="C183" s="8"/>
     </row>
     <row r="184">
-      <c r="B184" s="7"/>
-      <c r="C184" s="7"/>
+      <c r="B184" s="8"/>
+      <c r="C184" s="8"/>
     </row>
     <row r="185">
-      <c r="B185" s="7"/>
-      <c r="C185" s="7"/>
+      <c r="B185" s="8"/>
+      <c r="C185" s="8"/>
     </row>
     <row r="186">
-      <c r="B186" s="7"/>
-      <c r="C186" s="7"/>
+      <c r="B186" s="8"/>
+      <c r="C186" s="8"/>
     </row>
     <row r="187">
-      <c r="B187" s="7"/>
-      <c r="C187" s="7"/>
+      <c r="B187" s="8"/>
+      <c r="C187" s="8"/>
     </row>
     <row r="188">
-      <c r="B188" s="7"/>
-      <c r="C188" s="7"/>
+      <c r="B188" s="8"/>
+      <c r="C188" s="8"/>
     </row>
     <row r="189">
-      <c r="B189" s="7"/>
-      <c r="C189" s="7"/>
+      <c r="B189" s="8"/>
+      <c r="C189" s="8"/>
     </row>
     <row r="190">
-      <c r="B190" s="7"/>
-      <c r="C190" s="7"/>
+      <c r="B190" s="8"/>
+      <c r="C190" s="8"/>
     </row>
     <row r="191">
-      <c r="B191" s="7"/>
-      <c r="C191" s="7"/>
+      <c r="B191" s="8"/>
+      <c r="C191" s="8"/>
     </row>
     <row r="192">
-      <c r="B192" s="7"/>
-      <c r="C192" s="7"/>
+      <c r="B192" s="8"/>
+      <c r="C192" s="8"/>
     </row>
     <row r="193">
-      <c r="B193" s="7"/>
-      <c r="C193" s="7"/>
+      <c r="B193" s="8"/>
+      <c r="C193" s="8"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
